--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_34.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833037.5358977261</v>
+        <v>714334.0972374654</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>166.8150255101333</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>314.6536463267108</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>85.64047902724785</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>246.1966463278933</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>324.4964282009519</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>186.0190921871977</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>189.5968436493441</v>
       </c>
       <c r="X7" t="n">
-        <v>156.1271626621471</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>340.2935266439714</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>322.5676299600075</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>70.03418953492978</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>155.4526127311942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>116.4258537339746</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>243.2663029128043</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>49.32466800426501</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>20.07893685568296</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -1813,7 +1813,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710089</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>38.02006127926921</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>145.3971382331331</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2290,7 +2290,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>151.4314355753212</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>78.49934753514381</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G23" t="n">
         <v>411.9645167896915</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,19 +2369,19 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U23" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>80.37630218413105</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>248.0049374431546</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>195.5559609429028</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>195.815584166324</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>26.27275520016751</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>57.85017494300117</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>17.01291131885992</v>
+        <v>148.6137737921905</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3244,16 +3244,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,16 +3424,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>28.28099514487473</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,22 +3472,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>151.444149212078</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634785</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>33.35146980185882</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>40.71096332175367</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3706,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3746,19 +3746,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722634</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>43.62842154964836</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3955,16 +3955,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>116.3130092334105</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634785</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,22 +4132,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,22 +4180,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>280.395183307267</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>259.084580352331</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1701.775251950352</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C2" t="n">
-        <v>1332.81273500994</v>
+        <v>546.109828622464</v>
       </c>
       <c r="D2" t="n">
-        <v>974.5470364031896</v>
+        <v>546.109828622464</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>546.109828622464</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>539.1643278732605</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>525.2409238118514</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2478.514423990285</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2478.514423990285</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2478.514423990285</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>2088.375092014473</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,31 +4407,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.0596212327002</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>493.4767912696608</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>493.4767912696608</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>493.4767912696608</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>493.4767912696608</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W4" t="n">
-        <v>204.0596212327002</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="X4" t="n">
-        <v>204.0596212327002</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y4" t="n">
-        <v>204.0596212327002</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>666.7503635877424</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C5" t="n">
-        <v>666.7503635877424</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D5" t="n">
-        <v>666.7503635877424</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V5" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W5" t="n">
-        <v>1816.955293888756</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X5" t="n">
-        <v>1443.489535627676</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y5" t="n">
-        <v>1053.350203651864</v>
+        <v>2323.683332757143</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4689,7 +4689,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>211.6471865296039</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>211.6471865296039</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W7" t="n">
-        <v>211.6471865296039</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1233.603060210037</v>
+        <v>976.0491016702019</v>
       </c>
       <c r="C8" t="n">
-        <v>864.6405432696254</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>1976.511047455963</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W8" t="n">
-        <v>1623.742392185849</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X8" t="n">
-        <v>1623.742392185849</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="Y8" t="n">
-        <v>1233.603060210037</v>
+        <v>976.0491016702019</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,43 +4881,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4984,25 +4984,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610022</v>
+        <v>352.67413830922</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610022</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>210.9658229629848</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
         <v>53.94298182036445</v>
@@ -5021,28 +5021,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,7 +5051,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5121,16 +5121,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L12" t="n">
-        <v>1122.004430061687</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M12" t="n">
-        <v>1890.372576454149</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N12" t="n">
-        <v>1954.109744073479</v>
+        <v>2283.893885873787</v>
       </c>
       <c r="O12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.6350999123426</v>
+        <v>515.3536117832385</v>
       </c>
       <c r="C13" t="n">
-        <v>247.6350999123426</v>
+        <v>515.3536117832385</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123426</v>
+        <v>365.2369723709028</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>365.2369723709028</v>
       </c>
       <c r="F13" t="n">
         <v>247.6350999123426</v>
@@ -5230,19 +5230,19 @@
         <v>964.135741824786</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383442</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V13" t="n">
-        <v>675.0071030383442</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W13" t="n">
-        <v>429.2835647425823</v>
+        <v>964.135741824786</v>
       </c>
       <c r="X13" t="n">
-        <v>429.2835647425823</v>
+        <v>736.1461909267687</v>
       </c>
       <c r="Y13" t="n">
-        <v>429.2835647425823</v>
+        <v>515.3536117832385</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5273,49 +5273,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.70982261913</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047985</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="L15" t="n">
-        <v>738.0704661731477</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M15" t="n">
-        <v>794.1790493843999</v>
+        <v>1609.589088435861</v>
       </c>
       <c r="N15" t="n">
-        <v>1138.699705022018</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>565.9270610048577</v>
+        <v>415.8299478944155</v>
       </c>
       <c r="C16" t="n">
-        <v>565.9270610048577</v>
+        <v>415.8299478944155</v>
       </c>
       <c r="D16" t="n">
-        <v>415.8104215925219</v>
+        <v>415.8299478944155</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>267.9168543120223</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
         <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5461,25 +5461,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V16" t="n">
-        <v>1133.156678913841</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="W16" t="n">
-        <v>843.7395088768801</v>
+        <v>643.8194987924328</v>
       </c>
       <c r="X16" t="n">
-        <v>615.7499579788628</v>
+        <v>415.8299478944155</v>
       </c>
       <c r="Y16" t="n">
-        <v>615.7499579788628</v>
+        <v>415.8299478944155</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5510,55 +5510,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823803</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.28419175141</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515099</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.70982261913</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>3224.712326690735</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>3050.259297409608</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>2901.324887748357</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>2742.087432742901</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>2595.552874769786</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>2458.626196373971</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>2362.681322805659</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>2334.498159098443</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263798</v>
+        <v>2334.498159098443</v>
       </c>
       <c r="K18" t="n">
-        <v>2375.989236263798</v>
+        <v>2459.85571915628</v>
       </c>
       <c r="L18" t="n">
-        <v>2607.981074957721</v>
+        <v>3073.752788913169</v>
       </c>
       <c r="M18" t="n">
-        <v>3376.349221350183</v>
+        <v>3842.12093530563</v>
       </c>
       <c r="N18" t="n">
-        <v>4180.760799614333</v>
+        <v>4612.101158930332</v>
       </c>
       <c r="O18" t="n">
-        <v>4850.224560916992</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="P18" t="n">
-        <v>4850.224560916992</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="Q18" t="n">
-        <v>4850.224560916992</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>4720.948468098069</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>4526.033852021847</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>4297.928927641234</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>4062.776819409491</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>3600.687962475757</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>3392.927663710803</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>657.1994242851239</v>
+        <v>454.2145238948141</v>
       </c>
       <c r="C19" t="n">
-        <v>657.1994242851239</v>
+        <v>454.2145238948141</v>
       </c>
       <c r="D19" t="n">
-        <v>507.0827848727882</v>
+        <v>454.2145238948141</v>
       </c>
       <c r="E19" t="n">
-        <v>359.1696912903951</v>
+        <v>454.2145238948141</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>1128.265059152324</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V19" t="n">
-        <v>1128.265059152324</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W19" t="n">
-        <v>838.8478891153636</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="X19" t="n">
-        <v>838.8478891153636</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="Y19" t="n">
-        <v>838.8478891153636</v>
+        <v>454.2145238948141</v>
       </c>
     </row>
     <row r="20">
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028599</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5765,22 +5765,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
         <v>4262.357857465301</v>
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>508.1073603047985</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="L21" t="n">
-        <v>738.0704661731477</v>
+        <v>665.4409759452699</v>
       </c>
       <c r="M21" t="n">
-        <v>1045.390599453109</v>
+        <v>1433.809122337731</v>
       </c>
       <c r="N21" t="n">
-        <v>1849.80217771726</v>
+        <v>1433.809122337731</v>
       </c>
       <c r="O21" t="n">
-        <v>2519.265939019919</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P21" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3776.004670426976</v>
+        <v>3926.121309839312</v>
       </c>
       <c r="C22" t="n">
-        <v>3607.068487499069</v>
+        <v>3757.185126911405</v>
       </c>
       <c r="D22" t="n">
-        <v>3607.068487499069</v>
+        <v>3607.06848749907</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>4411.546387431058</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>4645.421365436455</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>4822.021130042138</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.85945949167</v>
+        <v>4549.859459491672</v>
       </c>
       <c r="T22" t="n">
-        <v>4326.074044281177</v>
+        <v>4396.898413455994</v>
       </c>
       <c r="U22" t="n">
-        <v>4036.945405494735</v>
+        <v>4107.769774669552</v>
       </c>
       <c r="V22" t="n">
-        <v>4036.945405494735</v>
+        <v>4107.769774669552</v>
       </c>
       <c r="W22" t="n">
-        <v>4036.945405494735</v>
+        <v>4107.769774669552</v>
       </c>
       <c r="X22" t="n">
-        <v>3957.653135257216</v>
+        <v>4107.769774669552</v>
       </c>
       <c r="Y22" t="n">
-        <v>3957.653135257216</v>
+        <v>4107.769774669552</v>
       </c>
     </row>
     <row r="23">
@@ -5966,73 +5966,73 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690735</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409608</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748357</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742901</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769786</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373971</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805659</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098443</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>2500.819361250805</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>2500.819361250805</v>
       </c>
       <c r="L24" t="n">
-        <v>1163.495507227045</v>
+        <v>3114.716431007694</v>
       </c>
       <c r="M24" t="n">
-        <v>1931.863653619506</v>
+        <v>3386.979233447483</v>
       </c>
       <c r="N24" t="n">
-        <v>2623.573505376138</v>
+        <v>4191.390811711634</v>
       </c>
       <c r="O24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098069</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021847</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641234</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409491</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475757</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710803</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4054.691437400725</v>
+        <v>289.9398668627132</v>
       </c>
       <c r="C25" t="n">
-        <v>3885.755254472818</v>
+        <v>289.9398668627132</v>
       </c>
       <c r="D25" t="n">
-        <v>3885.755254472818</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E25" t="n">
-        <v>3885.755254472818</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F25" t="n">
-        <v>3738.865306974908</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>3570.689985294728</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294728</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>4525.994054365623</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>4525.994054365623</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>4525.994054365623</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W25" t="n">
-        <v>4275.484016544255</v>
+        <v>920.3704617345004</v>
       </c>
       <c r="X25" t="n">
-        <v>4275.484016544255</v>
+        <v>692.3809108364831</v>
       </c>
       <c r="Y25" t="n">
-        <v>4054.691437400725</v>
+        <v>471.5883316929529</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,10 +6212,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,10 +6224,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6239,34 +6239,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>508.1073603047985</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="L27" t="n">
-        <v>1122.004430061687</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.740464804045</v>
+        <v>907.076315018105</v>
       </c>
       <c r="N27" t="n">
-        <v>2112.152043068196</v>
+        <v>1433.809122337731</v>
       </c>
       <c r="O27" t="n">
-        <v>2360.905457152158</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P27" t="n">
-        <v>2543.548934765509</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>416.2699138005285</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726216</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U28" t="n">
-        <v>1301.384996878203</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V28" t="n">
-        <v>1046.700508672316</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W28" t="n">
-        <v>1046.700508672316</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X28" t="n">
-        <v>818.7109577742983</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y28" t="n">
-        <v>597.9183786307682</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6485,28 +6485,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690732</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409605</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748354</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742898</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769783</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373968</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805656</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.49815909844</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>2334.49815909844</v>
       </c>
       <c r="K30" t="n">
-        <v>263.5382936126482</v>
+        <v>2745.388427942953</v>
       </c>
       <c r="L30" t="n">
-        <v>877.4353633695368</v>
+        <v>2992.153555849417</v>
       </c>
       <c r="M30" t="n">
-        <v>1149.698165809328</v>
+        <v>3760.521702241878</v>
       </c>
       <c r="N30" t="n">
-        <v>1954.109744073479</v>
+        <v>4105.042357879496</v>
       </c>
       <c r="O30" t="n">
-        <v>2623.573505376138</v>
+        <v>4353.795771963459</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S30" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098066</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021844</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641231</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409488</v>
       </c>
       <c r="W30" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681287</v>
       </c>
       <c r="X30" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475754</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.9276637108</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>271.6683216085047</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>271.6683216085047</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6649,22 +6649,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V31" t="n">
-        <v>786.0822064765186</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W31" t="n">
-        <v>727.647686332073</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X31" t="n">
-        <v>499.6581354340557</v>
+        <v>492.4609007520348</v>
       </c>
       <c r="Y31" t="n">
-        <v>278.8655562905255</v>
+        <v>271.6683216085047</v>
       </c>
     </row>
     <row r="32">
@@ -6680,37 +6680,37 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6722,7 +6722,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231263</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K33" t="n">
-        <v>412.607977814708</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L33" t="n">
-        <v>412.607977814708</v>
+        <v>3141.672735963665</v>
       </c>
       <c r="M33" t="n">
-        <v>1131.836193506796</v>
+        <v>3462.008055493367</v>
       </c>
       <c r="N33" t="n">
-        <v>1476.356849144414</v>
+        <v>4266.419633757518</v>
       </c>
       <c r="O33" t="n">
-        <v>2145.820610447073</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="34">
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>225.9364417462777</v>
+        <v>527.8027887886599</v>
       </c>
       <c r="C34" t="n">
-        <v>225.9364417462777</v>
+        <v>358.866605860753</v>
       </c>
       <c r="D34" t="n">
         <v>208.7516828383384</v>
@@ -6853,7 +6853,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6862,10 +6862,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6874,34 +6874,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247858</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U34" t="n">
-        <v>964.1357418247858</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="V34" t="n">
-        <v>964.1357418247858</v>
+        <v>709.4512536188996</v>
       </c>
       <c r="W34" t="n">
-        <v>674.7185717878251</v>
+        <v>709.4512536188996</v>
       </c>
       <c r="X34" t="n">
-        <v>446.7290208898078</v>
+        <v>709.4512536188996</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.9364417462777</v>
+        <v>709.4512536188996</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6929,34 +6929,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>2334.498159098441</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250803</v>
+        <v>2452.746844160891</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095316</v>
+        <v>2452.746844160891</v>
       </c>
       <c r="L36" t="n">
-        <v>2911.709630095316</v>
+        <v>3066.64391391778</v>
       </c>
       <c r="M36" t="n">
-        <v>3232.044949625018</v>
+        <v>3386.979233447481</v>
       </c>
       <c r="N36" t="n">
-        <v>3885.651382298619</v>
+        <v>4191.390811711633</v>
       </c>
       <c r="O36" t="n">
-        <v>4555.115143601278</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="P36" t="n">
-        <v>4555.115143601278</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="Q36" t="n">
-        <v>4850.224560916992</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R36" t="n">
         <v>4860.854573014292</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3972.746653869655</v>
+        <v>674.9567375132466</v>
       </c>
       <c r="C37" t="n">
-        <v>3803.810470941748</v>
+        <v>674.9567375132466</v>
       </c>
       <c r="D37" t="n">
-        <v>3803.810470941748</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E37" t="n">
-        <v>3655.897377359355</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F37" t="n">
-        <v>3627.330715596855</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4637.069157803799</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>4637.069157803799</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V37" t="n">
-        <v>4382.384669597912</v>
+        <v>1146.022372380447</v>
       </c>
       <c r="W37" t="n">
-        <v>4382.384669597912</v>
+        <v>856.6052023434863</v>
       </c>
       <c r="X37" t="n">
-        <v>4154.395118699895</v>
+        <v>856.6052023434863</v>
       </c>
       <c r="Y37" t="n">
-        <v>4154.395118699895</v>
+        <v>856.6052023434863</v>
       </c>
     </row>
     <row r="38">
@@ -7163,61 +7163,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643321</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899124</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207827</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851614</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590534</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614723</v>
       </c>
     </row>
     <row r="39">
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="K39" t="n">
         <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>1122.004430061687</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M39" t="n">
-        <v>1122.004430061687</v>
+        <v>1506.438612565609</v>
       </c>
       <c r="N39" t="n">
-        <v>1926.416008325838</v>
+        <v>1506.438612565609</v>
       </c>
       <c r="O39" t="n">
-        <v>2205.956073544535</v>
+        <v>2175.902373868269</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>920.3704617344999</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="C40" t="n">
-        <v>751.4342788065931</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="D40" t="n">
-        <v>601.3176393942573</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E40" t="n">
-        <v>453.4045458118642</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F40" t="n">
-        <v>306.5145983139538</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="G40" t="n">
-        <v>138.3392766337744</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H40" t="n">
-        <v>138.3392766337744</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7354,28 +7354,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V40" t="n">
-        <v>1209.787631771461</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W40" t="n">
-        <v>920.3704617344999</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X40" t="n">
-        <v>920.3704617344999</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="Y40" t="n">
-        <v>920.3704617344999</v>
+        <v>130.9054447954967</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,19 +7400,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7424,37 +7424,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="42">
@@ -7476,31 +7476,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="L42" t="n">
-        <v>711.1141612171745</v>
+        <v>673.2354924036335</v>
       </c>
       <c r="M42" t="n">
-        <v>1479.482307609636</v>
+        <v>1441.603638796095</v>
       </c>
       <c r="N42" t="n">
-        <v>2192.176613678825</v>
+        <v>1771.466266460128</v>
       </c>
       <c r="O42" t="n">
         <v>2440.930027762787</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>266.1532743881928</v>
+        <v>438.5941600866654</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>438.5941600866654</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>438.5941600866654</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>438.5941600866654</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>291.704212588755</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>291.704212588755</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>141.2862041366983</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7591,28 +7591,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V43" t="n">
-        <v>786.0822064765186</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="W43" t="n">
-        <v>786.0822064765186</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="X43" t="n">
-        <v>668.5943183619626</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="Y43" t="n">
-        <v>447.8017392184324</v>
+        <v>620.2426249169051</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899124</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207827</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851614</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590534</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614723</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690731</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409604</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748353</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742897</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769782</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373968</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805655</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098439</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098439</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6916787367256</v>
+        <v>2654.037330436079</v>
       </c>
       <c r="L45" t="n">
-        <v>854.5887484936143</v>
+        <v>2884.000436304428</v>
       </c>
       <c r="M45" t="n">
-        <v>854.5887484936143</v>
+        <v>3204.335755834129</v>
       </c>
       <c r="N45" t="n">
-        <v>1659.000326757765</v>
+        <v>4008.74733409828</v>
       </c>
       <c r="O45" t="n">
-        <v>2328.464088060424</v>
+        <v>4678.211095400939</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R45" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S45" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098065</v>
       </c>
       <c r="T45" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021843</v>
       </c>
       <c r="U45" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.92892764123</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409487</v>
       </c>
       <c r="W45" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681286</v>
       </c>
       <c r="X45" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475753</v>
       </c>
       <c r="Y45" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710799</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>266.1532743881928</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7828,28 +7828,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U46" t="n">
-        <v>991.90339746128</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V46" t="n">
-        <v>737.2189092553931</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W46" t="n">
-        <v>447.8017392184324</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="X46" t="n">
-        <v>447.8017392184324</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="Y46" t="n">
-        <v>447.8017392184324</v>
+        <v>413.3055067228584</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627889</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8541,13 +8541,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,19 +8778,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119861</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9006,13 +9006,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9021,10 +9021,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9261,7 +9261,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>417.1469656793815</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,16 +9951,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>329.7461902274305</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9972,10 +9972,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,13 +10191,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>417.1469656793834</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10206,13 +10206,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10440,16 +10440,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>307.3382443846237</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,19 +10662,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>77.53293726979028</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>327.0139444541093</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,10 +10683,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10908,22 +10908,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>214.7423747973677</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,7 +11148,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>386.6986650557136</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,10 +11157,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11382,7 +11382,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11391,10 +11391,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>28.99519428895663</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>43.25669542378668</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>130.5073121776723</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>125.3421111672483</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>107.400986743662</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>140.8402141654443</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>70.11612548306803</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>147.2103078538933</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>68.23917083408131</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>38.5180608934364</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24652,22 +24652,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>90.68139145567457</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>29.89407122271319</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>122.3427178180448</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>228.6728233935898</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>131.6025616993524</v>
+        <v>0.001699226021855793</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25132,16 +25132,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,16 +25312,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>117.1400528780565</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,22 +25360,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>100.69349411175</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25549,25 +25549,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>115.2640032163535</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>69.70828214251833</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25594,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>66.79082391462362</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,16 +25843,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>109.3966461556266</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,22 +26020,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986348</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26068,22 +26068,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>5.842169091310382</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>27.43841798426001</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278762</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.307527876</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.3075278762</v>
       </c>
     </row>
     <row r="8">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>703852.3075278762</v>
+        <v>703852.3075278761</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>703852.3075278762</v>
+        <v>703852.3075278761</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846413</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846414</v>
+        <v>697885.504384641</v>
       </c>
       <c r="E2" t="n">
-        <v>664749.4015541042</v>
+        <v>664749.4015541048</v>
       </c>
       <c r="F2" t="n">
+        <v>664749.401554105</v>
+      </c>
+      <c r="G2" t="n">
         <v>664749.4015541045</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>664749.4015541048</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>664749.401554105</v>
+      </c>
+      <c r="J2" t="n">
+        <v>664749.4015541049</v>
+      </c>
+      <c r="K2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="L2" t="n">
         <v>664749.4015541045</v>
       </c>
-      <c r="I2" t="n">
-        <v>664749.4015541048</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
+        <v>664749.401554105</v>
+      </c>
+      <c r="N2" t="n">
+        <v>664749.4015541045</v>
+      </c>
+      <c r="O2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="P2" t="n">
         <v>664749.4015541044</v>
-      </c>
-      <c r="K2" t="n">
-        <v>664749.4015541046</v>
-      </c>
-      <c r="L2" t="n">
-        <v>664749.4015541049</v>
-      </c>
-      <c r="M2" t="n">
-        <v>664749.4015541046</v>
-      </c>
-      <c r="N2" t="n">
-        <v>664749.4015541052</v>
-      </c>
-      <c r="O2" t="n">
-        <v>664749.401554105</v>
-      </c>
-      <c r="P2" t="n">
-        <v>664749.4015541049</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="F4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>787.7936905758102</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905757958</v>
+      </c>
+      <c r="I4" t="n">
+        <v>787.7936905758281</v>
+      </c>
+      <c r="J4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="G4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="I4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="K4" t="n">
-        <v>787.7936905758694</v>
-      </c>
       <c r="L4" t="n">
-        <v>787.793690575921</v>
+        <v>787.7936905758692</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759647</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905757974</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758691</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26479,37 +26479,37 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871661</v>
       </c>
-      <c r="M5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-114000.5920739319</v>
+        <v>-114000.5920739324</v>
       </c>
       <c r="C6" t="n">
-        <v>475967.2871406128</v>
+        <v>475967.2871406123</v>
       </c>
       <c r="D6" t="n">
-        <v>475967.287140613</v>
+        <v>475967.2871406125</v>
       </c>
       <c r="E6" t="n">
-        <v>46814.24543791552</v>
+        <v>46814.24543791614</v>
       </c>
       <c r="F6" t="n">
+        <v>571974.2819148125</v>
+      </c>
+      <c r="G6" t="n">
         <v>571974.281914812</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>571974.2819148123</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
+        <v>571974.2819148125</v>
+      </c>
+      <c r="J6" t="n">
+        <v>395551.0627222195</v>
+      </c>
+      <c r="K6" t="n">
+        <v>571974.2819148123</v>
+      </c>
+      <c r="L6" t="n">
         <v>571974.281914812</v>
       </c>
-      <c r="I6" t="n">
+      <c r="M6" t="n">
+        <v>437173.2666809753</v>
+      </c>
+      <c r="N6" t="n">
+        <v>571974.2819148119</v>
+      </c>
+      <c r="O6" t="n">
         <v>571974.2819148123</v>
       </c>
-      <c r="J6" t="n">
-        <v>395551.062722219</v>
-      </c>
-      <c r="K6" t="n">
-        <v>571974.2819148122</v>
-      </c>
-      <c r="L6" t="n">
-        <v>571974.2819148124</v>
-      </c>
-      <c r="M6" t="n">
-        <v>437173.266680975</v>
-      </c>
-      <c r="N6" t="n">
-        <v>571974.2819148127</v>
-      </c>
-      <c r="O6" t="n">
-        <v>571974.2819148125</v>
-      </c>
       <c r="P6" t="n">
-        <v>571974.2819148124</v>
+        <v>571974.2819148119</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26747,37 +26747,37 @@
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26799,16 +26799,16 @@
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>215.1153445621285</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9.269126437646321</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>126.5050599227711</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>40.32635200869768</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>58.23741346252871</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>195.9112778850641</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>96.92615468724691</v>
       </c>
       <c r="X7" t="n">
-        <v>69.58249272689008</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>24.97936512703615</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>5.184628510127368</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>216.4888088016612</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>63.13204062090063</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>111.734380307287</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31376,28 +31376,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>167.9005868329995</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31601,7 +31601,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31838,10 +31838,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>387.8120847358985</v>
@@ -31850,19 +31850,19 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>195.7226894765961</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>91.84465193776708</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677465</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,16 +32075,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>198.8093704990408</v>
+        <v>415.9781874107296</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -32093,19 +32093,19 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.327311296122</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,37 +32312,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>2.049225076337223</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>429.7571393808923</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>173.6763398629015</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>169.2400719020977</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -32576,10 +32576,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>350.6961576959736</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.490283364748</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>184.0526784666752</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>327.6922458964464</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927169</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>402.9221173357437</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446464</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540853</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>256.9673149466855</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>307.6406241511525</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946955</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>18.30002749353775</v>
+        <v>196.1430416967701</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35018,19 +35018,19 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
@@ -35498,10 +35498,10 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>64.38097739326282</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>343.1107267700522</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35647,16 +35647,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081138</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>56.67533657702249</v>
+        <v>739.5492172387112</v>
       </c>
       <c r="N15" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415095</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>234.3351905999222</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>777.7578016411126</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35984,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>405.9623053864865</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>35.26566448776746</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>275.0129317573632</v>
       </c>
       <c r="N24" t="n">
-        <v>698.6968199561938</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>187.6121563054121</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>532.0533407268954</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>275.012931757365</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>512.1806071220533</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081101</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4931471637253</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>589.7019466257319</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>119.443116224697</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M36" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>660.2085178521221</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951439</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P39" t="n">
-        <v>421.8357897288923</v>
+        <v>441.4556761722924</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>539.9265896747374</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>719.8932384537264</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109086</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>144.9238255317574</v>
+        <v>322.7668397349897</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3414943.068745476</v>
+        <v>3490472.738410281</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>714334.0972374654</v>
+        <v>374451.3659885034</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>314.6536463267108</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>71.32723313979653</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>21.30876781725451</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,25 +861,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>246.1966463278933</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>324.4964282009519</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>232.3023350252996</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1066,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>155.2114886365811</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1111,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>189.5968436493441</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>174.4897925651627</v>
       </c>
       <c r="C8" t="n">
-        <v>340.2935266439714</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,28 +1335,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>206.0181681025917</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>70.03418953492978</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274066</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>116.4258537339746</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1548,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1581,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1588,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>32.91466611915844</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1661,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="15">
@@ -1771,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>20.07893685568296</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1898,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,19 +2007,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>83.53884904317059</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>38.02006127926921</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2062,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>151.4314355753212</v>
+        <v>141.1712451439428</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2327,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>411.9645167896915</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>80.37630218413105</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>93.02703711889761</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2558,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206843</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2612,7 +2614,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>186.693074357275</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>195.815584166324</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>26.27275520016751</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>59.31602548752679</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3032,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206845</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3187,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6137737921905</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>20.81791057938574</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,22 +3240,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3421,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>1.054060529072647</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>151.444149212078</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634785</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3661,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>33.35146980185882</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>195.5620773244873</v>
       </c>
     </row>
     <row r="41">
@@ -3746,13 +3748,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722634</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>43.62842154964836</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>76.31290486405679</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634785</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4135,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -4189,19 +4191,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>36.20817744895391</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>259.084580352331</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.109828622464</v>
+        <v>1964.838184214438</v>
       </c>
       <c r="C2" t="n">
-        <v>546.109828622464</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D2" t="n">
-        <v>546.109828622464</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E2" t="n">
-        <v>546.109828622464</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>539.1643278732605</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>525.2409238118514</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2570.072691306497</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2351.43802427856</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2351.43802427856</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2351.43802427856</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2351.43802427856</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>2351.43802427856</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>2351.43802427856</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4404,7 +4406,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4422,28 +4424,28 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.2718927217162</v>
+        <v>75.46698971658114</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610024</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="W4" t="n">
-        <v>190.2718927217162</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="X4" t="n">
-        <v>190.2718927217162</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.2718927217162</v>
+        <v>257.1154545468208</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1995.909162857192</v>
+        <v>1409.658350833668</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>1040.695833893257</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1040.695833893257</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018223</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018223</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018223</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>1796.25819089779</v>
       </c>
       <c r="Y5" t="n">
-        <v>2323.683332757143</v>
+        <v>1796.25819089779</v>
       </c>
     </row>
     <row r="6">
@@ -4620,31 +4622,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036469</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
@@ -4656,7 +4658,7 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4689,7 +4691,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4759,16 +4761,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036446</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>210.7222632714565</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>976.0491016702019</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="C8" t="n">
-        <v>632.3182666762914</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="D8" t="n">
-        <v>632.3182666762914</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177208</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W8" t="n">
-        <v>1739.654191907093</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="X8" t="n">
-        <v>1366.188433646014</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="Y8" t="n">
-        <v>976.0491016702019</v>
+        <v>1117.513150920515</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4890,34 +4892,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>352.67413830922</v>
+        <v>490.6129053604687</v>
       </c>
       <c r="U10" t="n">
-        <v>352.67413830922</v>
+        <v>490.6129053604687</v>
       </c>
       <c r="V10" t="n">
-        <v>352.67413830922</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
     </row>
     <row r="11">
@@ -5018,22 +5020,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5066,22 +5068,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>711.1141612171745</v>
+        <v>894.5540770733951</v>
       </c>
       <c r="M12" t="n">
-        <v>1479.482307609636</v>
+        <v>1214.889396603097</v>
       </c>
       <c r="N12" t="n">
-        <v>2283.893885873787</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O12" t="n">
-        <v>2623.573505376138</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>515.3536117832385</v>
+        <v>973.0255547109412</v>
       </c>
       <c r="C13" t="n">
-        <v>515.3536117832385</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="D13" t="n">
-        <v>365.2369723709028</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E13" t="n">
-        <v>365.2369723709028</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5227,22 +5229,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>964.135741824786</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V13" t="n">
-        <v>964.135741824786</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W13" t="n">
-        <v>964.135741824786</v>
+        <v>1154.674019541181</v>
       </c>
       <c r="X13" t="n">
-        <v>736.1461909267687</v>
+        <v>1154.674019541181</v>
       </c>
       <c r="Y13" t="n">
-        <v>515.3536117832385</v>
+        <v>1154.674019541181</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5273,13 +5275,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5288,10 +5290,10 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
@@ -5300,13 +5302,13 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465302</v>
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>263.5382936126483</v>
+        <v>554.2152884646821</v>
       </c>
       <c r="L15" t="n">
-        <v>877.4353633695368</v>
+        <v>784.1783943330313</v>
       </c>
       <c r="M15" t="n">
-        <v>1609.589088435861</v>
+        <v>1552.546540725493</v>
       </c>
       <c r="N15" t="n">
-        <v>1954.109744073479</v>
+        <v>1897.067196363111</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>415.8299478944155</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>415.8299478944155</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>415.8299478944155</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>267.9168543120223</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>933.2366688293934</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W16" t="n">
-        <v>643.8194987924328</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X16" t="n">
-        <v>415.8299478944155</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y16" t="n">
-        <v>415.8299478944155</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5510,22 +5512,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823803</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.28419175141</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515099</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643325</v>
@@ -5537,28 +5539,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690735</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409608</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742901</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769786</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373971</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805659</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
-        <v>2459.85571915628</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>3073.752788913169</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M18" t="n">
-        <v>3842.12093530563</v>
+        <v>754.998473976564</v>
       </c>
       <c r="N18" t="n">
-        <v>4612.101158930332</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O18" t="n">
-        <v>4860.854573014294</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>4860.854573014294</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641234</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409491</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475757</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710803</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>454.2145238948141</v>
+        <v>496.665036439558</v>
       </c>
       <c r="C19" t="n">
-        <v>454.2145238948141</v>
+        <v>496.665036439558</v>
       </c>
       <c r="D19" t="n">
-        <v>454.2145238948141</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E19" t="n">
-        <v>454.2145238948141</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>675.0071030383442</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>675.0071030383442</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W19" t="n">
-        <v>675.0071030383442</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X19" t="n">
-        <v>675.0071030383442</v>
+        <v>496.665036439558</v>
       </c>
       <c r="Y19" t="n">
-        <v>454.2145238948141</v>
+        <v>496.665036439558</v>
       </c>
     </row>
     <row r="20">
@@ -5729,34 +5731,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028599</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5771,25 +5773,25 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5826,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>263.5382936126483</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L21" t="n">
-        <v>665.4409759452699</v>
+        <v>894.5540770733946</v>
       </c>
       <c r="M21" t="n">
-        <v>1433.809122337731</v>
+        <v>1214.889396603096</v>
       </c>
       <c r="N21" t="n">
-        <v>1433.809122337731</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O21" t="n">
-        <v>2103.272883640391</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3926.121309839312</v>
+        <v>846.3978353108171</v>
       </c>
       <c r="C22" t="n">
-        <v>3757.185126911405</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="D22" t="n">
-        <v>3607.06848749907</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916677</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916677</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916677</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.859459491672</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>4396.898413455994</v>
+        <v>1356.319053240789</v>
       </c>
       <c r="U22" t="n">
-        <v>4107.769774669552</v>
+        <v>1067.190414454347</v>
       </c>
       <c r="V22" t="n">
-        <v>4107.769774669552</v>
+        <v>1067.190414454347</v>
       </c>
       <c r="W22" t="n">
-        <v>4107.769774669552</v>
+        <v>1067.190414454347</v>
       </c>
       <c r="X22" t="n">
-        <v>4107.769774669552</v>
+        <v>1067.190414454347</v>
       </c>
       <c r="Y22" t="n">
-        <v>4107.769774669552</v>
+        <v>846.3978353108171</v>
       </c>
     </row>
     <row r="23">
@@ -5969,37 +5971,37 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643324</v>
@@ -6011,7 +6013,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231265</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690735</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409608</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742901</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769786</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373971</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805659</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250805</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K24" t="n">
-        <v>2500.819361250805</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L24" t="n">
-        <v>3114.716431007694</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>3386.979233447483</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
-        <v>4191.390811711634</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="O24" t="n">
-        <v>4860.854573014294</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P24" t="n">
-        <v>4860.854573014294</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014294</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641234</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409491</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475757</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710803</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>289.9398668627132</v>
+        <v>510.2366179610311</v>
       </c>
       <c r="C25" t="n">
-        <v>289.9398668627132</v>
+        <v>341.3004350331242</v>
       </c>
       <c r="D25" t="n">
-        <v>208.7516828383384</v>
+        <v>191.1837956207885</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383384</v>
+        <v>191.1837956207885</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>191.1837956207885</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799365</v>
@@ -6175,22 +6177,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.787631771461</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="W25" t="n">
-        <v>920.3704617345004</v>
+        <v>731.0291971045613</v>
       </c>
       <c r="X25" t="n">
-        <v>692.3809108364831</v>
+        <v>731.0291971045613</v>
       </c>
       <c r="Y25" t="n">
-        <v>471.5883316929529</v>
+        <v>510.2366179610311</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6245,31 +6247,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6291,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K27" t="n">
-        <v>138.7081686256435</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L27" t="n">
-        <v>138.7081686256435</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>907.076315018105</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N27" t="n">
-        <v>1433.809122337731</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O27" t="n">
-        <v>2103.272883640391</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>244.1070389581962</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C28" t="n">
-        <v>244.1070389581962</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581962</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799365</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347409</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609669</v>
+        <v>1199.262304132582</v>
       </c>
       <c r="V28" t="n">
-        <v>731.31772835508</v>
+        <v>944.5778159266949</v>
       </c>
       <c r="W28" t="n">
-        <v>441.9005583181194</v>
+        <v>944.5778159266949</v>
       </c>
       <c r="X28" t="n">
-        <v>244.1070389581962</v>
+        <v>944.5778159266949</v>
       </c>
       <c r="Y28" t="n">
-        <v>244.1070389581962</v>
+        <v>723.7852367831648</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003442</v>
@@ -6449,22 +6451,22 @@
         <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6473,40 +6475,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>2334.49815909844</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>2745.388427942953</v>
+        <v>388.8958536704857</v>
       </c>
       <c r="L30" t="n">
-        <v>2992.153555849417</v>
+        <v>794.1790493843995</v>
       </c>
       <c r="M30" t="n">
-        <v>3760.521702241878</v>
+        <v>794.1790493843995</v>
       </c>
       <c r="N30" t="n">
-        <v>4105.042357879496</v>
+        <v>1138.699705022017</v>
       </c>
       <c r="O30" t="n">
-        <v>4353.795771963459</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>4860.854573014291</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6595,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>271.6683216085047</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C31" t="n">
-        <v>271.6683216085047</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D31" t="n">
-        <v>245.1301850426789</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028583</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6637,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1327.9259898596</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>1104.140574649106</v>
       </c>
       <c r="U31" t="n">
-        <v>1009.867621687013</v>
+        <v>1104.140574649106</v>
       </c>
       <c r="V31" t="n">
-        <v>1009.867621687013</v>
+        <v>1104.140574649106</v>
       </c>
       <c r="W31" t="n">
-        <v>720.4504516500522</v>
+        <v>814.7234046121455</v>
       </c>
       <c r="X31" t="n">
-        <v>492.4609007520348</v>
+        <v>814.7234046121455</v>
       </c>
       <c r="Y31" t="n">
-        <v>271.6683216085047</v>
+        <v>593.9308254686154</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6710,40 +6712,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>3224.712326690735</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>3050.259297409608</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>2901.324887748357</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>2742.087432742901</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>2595.552874769786</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>2458.626196373971</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>2362.681322805659</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>2334.498159098443</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250803</v>
+        <v>2334.498159098443</v>
       </c>
       <c r="K33" t="n">
-        <v>2911.709630095316</v>
+        <v>2745.388427942955</v>
       </c>
       <c r="L33" t="n">
-        <v>3141.672735963665</v>
+        <v>3359.285497699844</v>
       </c>
       <c r="M33" t="n">
-        <v>3462.008055493367</v>
+        <v>3679.620817229546</v>
       </c>
       <c r="N33" t="n">
-        <v>4266.419633757518</v>
+        <v>4024.141472867164</v>
       </c>
       <c r="O33" t="n">
-        <v>4850.224560916992</v>
+        <v>4272.894886951126</v>
       </c>
       <c r="P33" t="n">
-        <v>4850.224560916992</v>
+        <v>4565.74515569858</v>
       </c>
       <c r="Q33" t="n">
-        <v>4850.224560916992</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>4720.948468098069</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>4526.033852021847</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>4297.928927641234</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>4062.776819409491</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>3600.687962475757</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>3392.927663710803</v>
       </c>
     </row>
     <row r="34">
@@ -6832,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>527.8027887886599</v>
+        <v>268.3619233770517</v>
       </c>
       <c r="C34" t="n">
-        <v>358.866605860753</v>
+        <v>268.3619233770517</v>
       </c>
       <c r="D34" t="n">
-        <v>208.7516828383384</v>
+        <v>118.2452839647159</v>
       </c>
       <c r="E34" t="n">
-        <v>208.7516828383384</v>
+        <v>118.2452839647159</v>
       </c>
       <c r="F34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
         <v>507.4972331799365</v>
@@ -6886,22 +6888,22 @@
         <v>1187.921157035281</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247865</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U34" t="n">
-        <v>964.1357418247865</v>
+        <v>898.7925182488389</v>
       </c>
       <c r="V34" t="n">
-        <v>709.4512536188996</v>
+        <v>898.7925182488389</v>
       </c>
       <c r="W34" t="n">
-        <v>709.4512536188996</v>
+        <v>898.7925182488389</v>
       </c>
       <c r="X34" t="n">
-        <v>709.4512536188996</v>
+        <v>670.8029673508215</v>
       </c>
       <c r="Y34" t="n">
-        <v>709.4512536188996</v>
+        <v>450.0103882072914</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6929,16 +6931,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6956,31 +6958,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>2452.746844160891</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>2452.746844160891</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L36" t="n">
-        <v>3066.64391391778</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>3386.979233447481</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
-        <v>4191.390811711633</v>
+        <v>2234.893232091767</v>
       </c>
       <c r="O36" t="n">
-        <v>4860.854573014292</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P36" t="n">
-        <v>4860.854573014292</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>674.9567375132466</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C37" t="n">
-        <v>674.9567375132466</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D37" t="n">
-        <v>524.8400981009108</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E37" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F37" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1386.776459514605</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>1162.99104430411</v>
       </c>
       <c r="U37" t="n">
-        <v>1298.996260473455</v>
+        <v>873.8624055176685</v>
       </c>
       <c r="V37" t="n">
-        <v>1146.022372380447</v>
+        <v>873.8624055176685</v>
       </c>
       <c r="W37" t="n">
-        <v>856.6052023434863</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="X37" t="n">
-        <v>856.6052023434863</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="Y37" t="n">
-        <v>856.6052023434863</v>
+        <v>584.4452354807079</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7187,37 +7189,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643321</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899124</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207827</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851614</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590534</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614723</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>508.1073603047985</v>
+        <v>246.2867756623457</v>
       </c>
       <c r="L39" t="n">
-        <v>738.0704661731477</v>
+        <v>860.1838454192346</v>
       </c>
       <c r="M39" t="n">
-        <v>1506.438612565609</v>
+        <v>1180.519164948936</v>
       </c>
       <c r="N39" t="n">
-        <v>1506.438612565609</v>
+        <v>1525.039820586554</v>
       </c>
       <c r="O39" t="n">
-        <v>2175.902373868269</v>
+        <v>2194.503581889214</v>
       </c>
       <c r="P39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.9054447954967</v>
+        <v>822.9089152986054</v>
       </c>
       <c r="C40" t="n">
-        <v>130.9054447954967</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028581</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028581</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028581</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028581</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028581</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7336,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7348,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>964.135741824786</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U40" t="n">
-        <v>675.0071030383442</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324574</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="W40" t="n">
-        <v>130.9054447954967</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="X40" t="n">
-        <v>130.9054447954967</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.9054447954967</v>
+        <v>822.9089152986054</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7430,31 +7432,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7487,28 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L42" t="n">
-        <v>673.2354924036335</v>
+        <v>493.5013994809973</v>
       </c>
       <c r="M42" t="n">
-        <v>1441.603638796095</v>
+        <v>1261.869545873459</v>
       </c>
       <c r="N42" t="n">
-        <v>1771.466266460128</v>
+        <v>1261.869545873459</v>
       </c>
       <c r="O42" t="n">
-        <v>2440.930027762787</v>
+        <v>1931.333307176119</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2451.633928911866</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>438.5941600866654</v>
+        <v>545.8631874464246</v>
       </c>
       <c r="C43" t="n">
-        <v>438.5941600866654</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D43" t="n">
-        <v>438.5941600866654</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E43" t="n">
-        <v>438.5941600866654</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F43" t="n">
-        <v>291.704212588755</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G43" t="n">
-        <v>291.704212588755</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
-        <v>141.2862041366983</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7573,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1310.757424832802</v>
       </c>
       <c r="T43" t="n">
-        <v>1164.055751909234</v>
+        <v>1310.757424832802</v>
       </c>
       <c r="U43" t="n">
-        <v>874.927113122792</v>
+        <v>1310.757424832802</v>
       </c>
       <c r="V43" t="n">
-        <v>620.2426249169051</v>
+        <v>1056.072936626915</v>
       </c>
       <c r="W43" t="n">
-        <v>620.2426249169051</v>
+        <v>766.6557665899547</v>
       </c>
       <c r="X43" t="n">
-        <v>620.2426249169051</v>
+        <v>766.6557665899547</v>
       </c>
       <c r="Y43" t="n">
-        <v>620.2426249169051</v>
+        <v>545.8631874464246</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7637,19 +7639,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7664,34 +7666,34 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899124</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207827</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
         <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851614</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590534</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614723</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690731</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409604</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748353</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.087432742897</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769782</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805655</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098439</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>2334.498159098439</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>2654.037330436079</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L45" t="n">
-        <v>2884.000436304428</v>
+        <v>493.5013994809973</v>
       </c>
       <c r="M45" t="n">
-        <v>3204.335755834129</v>
+        <v>813.8367190106992</v>
       </c>
       <c r="N45" t="n">
-        <v>4008.74733409828</v>
+        <v>1158.357374648317</v>
       </c>
       <c r="O45" t="n">
-        <v>4678.211095400939</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>4860.854573014291</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>4860.854573014291</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098065</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021843</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.92892764123</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.776819409487</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681286</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475753</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710799</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>413.3055067228584</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C46" t="n">
-        <v>413.3055067228584</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D46" t="n">
-        <v>413.3055067228584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>964.135741824786</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>675.0071030383442</v>
+        <v>1038.636928647856</v>
       </c>
       <c r="V46" t="n">
-        <v>675.0071030383442</v>
+        <v>783.952440441969</v>
       </c>
       <c r="W46" t="n">
-        <v>413.3055067228584</v>
+        <v>783.952440441969</v>
       </c>
       <c r="X46" t="n">
-        <v>413.3055067228584</v>
+        <v>783.952440441969</v>
       </c>
       <c r="Y46" t="n">
-        <v>413.3055067228584</v>
+        <v>563.1598612984388</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.3570488013773</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8547,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8769,10 +8771,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>360.903384442737</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8784,13 +8786,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8936,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119861</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9006,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>143.0376875252263</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9021,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9249,7 +9251,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>159.233031703247</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9258,13 +9260,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,10 +9500,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>417.1469656793815</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>378.6326432910346</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,19 +9953,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>249.5945430422479</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9972,10 +9974,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,10 +10196,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>160.1192604115653</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10209,10 +10211,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10440,13 +10442,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>307.3382443846237</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>77.53293726979028</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10677,16 +10679,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>237.1122605744013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10923,7 +10925,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11148,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445216</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>28.99519428895663</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23476,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>253.6083322174326</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23659,16 +23661,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>125.3421111672483</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>14.74113413690307</v>
       </c>
     </row>
     <row r="17">
@@ -23893,19 +23895,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>65.07662397504177</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>107.400986743662</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>70.11612548306803</v>
+        <v>80.37631591444642</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>68.23917083408131</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>73.46653134447998</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,19 +24417,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>99.54427804130231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>29.89407122271319</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>122.3427178180448</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>138.6047844960765</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0.001699226021855793</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>124.6031374435455</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25093,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,22 +25128,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25330,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>196.8667494545306</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>100.69349411175</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25549,25 +25551,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>115.2640032163535</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>23.02257602760753</v>
       </c>
     </row>
     <row r="41">
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25795,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>66.79082391462362</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,25 +25836,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>121.6079051195465</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,19 +26025,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986348</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>250.0291749496234</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>27.43841798426001</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>703852.3075278762</v>
+        <v>703852.307527876</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278761</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>703852.3075278762</v>
+        <v>703852.3075278761</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.3075278762</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.3075278762</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.3075278762</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.3075278762</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.3075278762</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278761</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="D2" t="n">
         <v>697885.504384641</v>
       </c>
       <c r="E2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="F2" t="n">
+        <v>664749.4015541044</v>
+      </c>
+      <c r="G2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="H2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="I2" t="n">
+        <v>664749.4015541045</v>
+      </c>
+      <c r="J2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="K2" t="n">
+        <v>664749.4015541045</v>
+      </c>
+      <c r="L2" t="n">
+        <v>664749.4015541043</v>
+      </c>
+      <c r="M2" t="n">
+        <v>664749.4015541043</v>
+      </c>
+      <c r="N2" t="n">
         <v>664749.4015541048</v>
-      </c>
-      <c r="F2" t="n">
-        <v>664749.401554105</v>
-      </c>
-      <c r="G2" t="n">
-        <v>664749.4015541045</v>
-      </c>
-      <c r="H2" t="n">
-        <v>664749.4015541048</v>
-      </c>
-      <c r="I2" t="n">
-        <v>664749.401554105</v>
-      </c>
-      <c r="J2" t="n">
-        <v>664749.4015541049</v>
-      </c>
-      <c r="K2" t="n">
-        <v>664749.4015541048</v>
-      </c>
-      <c r="L2" t="n">
-        <v>664749.4015541045</v>
-      </c>
-      <c r="M2" t="n">
-        <v>664749.401554105</v>
-      </c>
-      <c r="N2" t="n">
-        <v>664749.4015541045</v>
       </c>
       <c r="O2" t="n">
         <v>664749.4015541046</v>
       </c>
       <c r="P2" t="n">
-        <v>664749.4015541044</v>
+        <v>664749.4015541049</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.139180619</v>
@@ -26424,40 +26426,40 @@
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905759207</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758102</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905757958</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758281</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
+        <v>787.7936905757999</v>
+      </c>
+      <c r="K4" t="n">
+        <v>787.7936905758011</v>
+      </c>
+      <c r="L4" t="n">
+        <v>787.7936905757997</v>
+      </c>
+      <c r="M4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="N4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="K4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="L4" t="n">
-        <v>787.7936905758692</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>787.7936905758693</v>
       </c>
-      <c r="N4" t="n">
-        <v>787.7936905759647</v>
-      </c>
-      <c r="O4" t="n">
-        <v>787.7936905757974</v>
-      </c>
       <c r="P4" t="n">
-        <v>787.7936905758691</v>
+        <v>787.7936905758693</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>82859.07806340947</v>
+      </c>
+      <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>82859.07806340947</v>
-      </c>
-      <c r="D5" t="n">
-        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871667</v>
       </c>
-      <c r="G5" t="n">
+      <c r="L5" t="n">
         <v>91987.32594871667</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="M5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871661</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-114000.5920739324</v>
+        <v>-114000.5920739321</v>
       </c>
       <c r="C6" t="n">
-        <v>475967.2871406123</v>
+        <v>475967.2871406127</v>
       </c>
       <c r="D6" t="n">
-        <v>475967.2871406125</v>
+        <v>475967.2871406124</v>
       </c>
       <c r="E6" t="n">
-        <v>46814.24543791614</v>
+        <v>46814.24543791593</v>
       </c>
       <c r="F6" t="n">
-        <v>571974.2819148125</v>
+        <v>571974.281914812</v>
       </c>
       <c r="G6" t="n">
+        <v>571974.2819148122</v>
+      </c>
+      <c r="H6" t="n">
         <v>571974.281914812</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
+        <v>571974.281914812</v>
+      </c>
+      <c r="J6" t="n">
+        <v>395551.0627222192</v>
+      </c>
+      <c r="K6" t="n">
+        <v>571974.281914812</v>
+      </c>
+      <c r="L6" t="n">
+        <v>571974.2819148118</v>
+      </c>
+      <c r="M6" t="n">
+        <v>437173.2666809747</v>
+      </c>
+      <c r="N6" t="n">
         <v>571974.2819148123</v>
       </c>
-      <c r="I6" t="n">
-        <v>571974.2819148125</v>
-      </c>
-      <c r="J6" t="n">
-        <v>395551.0627222195</v>
-      </c>
-      <c r="K6" t="n">
-        <v>571974.2819148123</v>
-      </c>
-      <c r="L6" t="n">
-        <v>571974.281914812</v>
-      </c>
-      <c r="M6" t="n">
-        <v>437173.2666809753</v>
-      </c>
-      <c r="N6" t="n">
-        <v>571974.2819148119</v>
-      </c>
       <c r="O6" t="n">
-        <v>571974.2819148123</v>
+        <v>571974.2819148122</v>
       </c>
       <c r="P6" t="n">
-        <v>571974.2819148119</v>
+        <v>571974.2819148124</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26741,7 +26743,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26753,7 +26755,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541004</v>
@@ -26787,37 +26789,37 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
+        <v>1215.213643253573</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1215.213643253573</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1215.213643253573</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1215.213643253573</v>
+      </c>
+      <c r="J4" t="n">
         <v>1215.213643253574</v>
       </c>
-      <c r="G4" t="n">
+      <c r="K4" t="n">
         <v>1215.213643253574</v>
       </c>
-      <c r="H4" t="n">
+      <c r="L4" t="n">
         <v>1215.213643253574</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1215.213643253574</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1215.213643253573</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1215.213643253573</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9.269126437646321</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.088479669175</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>145.9380532813733</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27555,7 +27557,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27579,25 +27581,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>40.32635200869768</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>58.23741346252871</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>149.6280350469622</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27786,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>12.09831362246982</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27831,10 +27833,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>96.92615468724691</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>208.2440490983179</v>
       </c>
       <c r="C8" t="n">
-        <v>24.97936512703615</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28055,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>19.01693735549253</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>216.4888088016612</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
     </row>
     <row r="12">
@@ -29272,13 +29274,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29293,7 +29295,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29332,7 +29334,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29530,7 +29532,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>-1.506350599811412e-12</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29752,7 +29754,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -31142,13 +31144,13 @@
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392718</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034983</v>
@@ -31376,10 +31378,10 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>167.9005868329995</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>149.8971812516336</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31610,7 +31612,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993485</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31838,31 +31840,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>91.84465193776708</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677465</v>
@@ -32078,25 +32080,25 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>415.9781874107296</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
@@ -32233,7 +32235,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.327311296122</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32315,28 +32317,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>429.7571393808923</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
         <v>34.18755300444946</v>
@@ -32482,13 +32484,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647497</v>
@@ -32503,7 +32505,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32552,34 +32554,34 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>173.6763398629015</v>
+        <v>116.154074479686</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
         <v>45.03122946298631</v>
@@ -32631,10 +32633,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
         <v>234.725964217132</v>
@@ -32643,7 +32645,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,13 +32657,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,28 +32788,28 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
         <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32965,7 +32967,7 @@
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.490283364748</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
@@ -33023,31 +33025,31 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>184.0526784666752</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33260,31 +33262,31 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>327.6922458964464</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
@@ -33430,7 +33432,7 @@
         <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927169</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
         <v>562.4526372540887</v>
@@ -33497,31 +33499,31 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>111.3199910445484</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
@@ -33679,7 +33681,7 @@
         <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
         <v>76.06970478104651</v>
@@ -33734,31 +33736,31 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
         <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33907,7 +33909,7 @@
         <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540853</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
@@ -33916,7 +33918,7 @@
         <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446464</v>
       </c>
       <c r="S38" t="n">
         <v>76.06970478104651</v>
@@ -33977,19 +33979,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>256.9673149466855</v>
+        <v>248.9156018924985</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -34150,7 +34152,7 @@
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.490283364748</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
@@ -34214,22 +34216,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>307.6406241511525</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>103.5808262130737</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34384,10 +34386,10 @@
         <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946955</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.490283364748</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
@@ -34445,10 +34447,10 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>196.1430416967701</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -34457,19 +34459,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>394.3663287829266</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677465</v>
@@ -34790,13 +34792,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35024,10 +35026,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839187</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>222.3490046628629</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>343.1107267700522</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35656,7 +35658,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081138</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35726,25 +35728,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>293.6131261131655</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>739.5492172387112</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415095</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>17.09899778122862</v>
       </c>
       <c r="N18" t="n">
-        <v>777.7578016411126</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36130,19 +36132,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>405.9623053864865</v>
+        <v>348.440040003271</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36285,7 +36287,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056037</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
         <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>275.0129317573632</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>247.2909312077013</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36613,7 +36615,7 @@
         <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R26" t="n">
         <v>59.82538970349813</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>532.0533407268954</v>
+        <v>118.2528309589146</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>409.3769653675897</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P30" t="n">
-        <v>512.1806071220533</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37078,7 +37080,7 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081101</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
         <v>713.1546070951473</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M33" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>589.7019466257319</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>295.8083522701554</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>119.443116224697</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
         <v>620.0980502594836</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178378</v>
+        <v>94.51601612995684</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37555,7 +37557,7 @@
         <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951439</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109124</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37624,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
         <v>676.2260215178378</v>
       </c>
       <c r="P39" t="n">
-        <v>441.4556761722924</v>
+        <v>433.4039631181054</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37798,7 +37800,7 @@
         <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R41" t="n">
         <v>59.82538970349813</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>539.9265896747374</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>676.2260215178378</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>173.6763398629013</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38032,10 +38034,10 @@
         <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109086</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R44" t="n">
         <v>59.82538970349813</v>
@@ -38093,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>322.7668397349897</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
@@ -38105,19 +38107,19 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178378</v>
+        <v>645.6324036152117</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3490472.738410281</v>
+        <v>3483455.723518569</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>374451.3659885034</v>
+        <v>577607.7018218999</v>
       </c>
     </row>
     <row r="8">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>343.1089964713257</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>71.32723313979653</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>21.30876781725451</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>63.57678144609376</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>232.3023350252996</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>118.1129065718637</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1068,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>200.9966871393563</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>174.4897925651627</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>307.9222910483171</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>45.19995918853699</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>206.0181681025917</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>129.7443338701759</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274066</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>32.91466611915844</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>203.8435192151917</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1897,10 +1897,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>100.4879364842347</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>83.53884904317059</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>141.1712451439428</v>
+        <v>136.9575509524583</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>93.02703711889761</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2535,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>198.7394337605682</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206843</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,16 +2721,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>185.8806217235415</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>186.693074357275</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>59.31602548752679</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>25.37433807241459</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206845</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>20.81791057938574</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>4.181425369522432</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>139.1537278750036</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>1.054060529072647</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>195.5620773244873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>76.31290486405679</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>161.1706059301398</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>36.20817744895391</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1964.838184214438</v>
+        <v>1538.731846067564</v>
       </c>
       <c r="C2" t="n">
-        <v>1595.875667274027</v>
+        <v>1169.769329127153</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>811.5036305204021</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>811.5036305204021</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>400.5177257307946</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036446</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S2" t="n">
-        <v>2570.072691306497</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2351.43802427856</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U2" t="n">
-        <v>2351.43802427856</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="V2" t="n">
-        <v>2351.43802427856</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="W2" t="n">
-        <v>2351.43802427856</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="X2" t="n">
-        <v>2351.43802427856</v>
+        <v>1928.871178043376</v>
       </c>
       <c r="Y2" t="n">
-        <v>2351.43802427856</v>
+        <v>1538.731846067564</v>
       </c>
     </row>
     <row r="3">
@@ -4409,19 +4409,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>75.46698971658114</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036446</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>257.1154545468208</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>257.1154545468208</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>257.1154545468208</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>257.1154545468208</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>257.1154545468208</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>257.1154545468208</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1409.658350833668</v>
+        <v>1697.251320989584</v>
       </c>
       <c r="C5" t="n">
-        <v>1040.695833893257</v>
+        <v>1328.288804049173</v>
       </c>
       <c r="D5" t="n">
-        <v>1040.695833893257</v>
+        <v>970.0231054424221</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>584.2348528441778</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>173.2489480545702</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4600,19 +4600,19 @@
         <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2169.72394915887</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W5" t="n">
-        <v>2169.72394915887</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X5" t="n">
-        <v>1796.25819089779</v>
+        <v>1697.251320989584</v>
       </c>
       <c r="Y5" t="n">
-        <v>1796.25819089779</v>
+        <v>1697.251320989584</v>
       </c>
     </row>
     <row r="6">
@@ -4637,28 +4637,28 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4670,7 +4670,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>210.7222632714565</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="C7" t="n">
-        <v>210.7222632714565</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="D7" t="n">
-        <v>210.7222632714565</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="E7" t="n">
-        <v>210.7222632714565</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="F7" t="n">
-        <v>210.7222632714565</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4755,22 +4755,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>525.1020275000139</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694738</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="X7" t="n">
-        <v>210.7222632714565</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="Y7" t="n">
-        <v>210.7222632714565</v>
+        <v>235.9284171545818</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>941.2608351981287</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C8" t="n">
-        <v>941.2608351981287</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D8" t="n">
-        <v>941.2608351981287</v>
+        <v>764.6872557005402</v>
       </c>
       <c r="E8" t="n">
-        <v>555.4725825998845</v>
+        <v>378.8990031022959</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500978</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157407</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1881.118241157407</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1507.652482896327</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y8" t="n">
-        <v>1117.513150920515</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4892,10 +4892,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.9284171545819</v>
+        <v>415.4256366790473</v>
       </c>
       <c r="C10" t="n">
-        <v>235.9284171545819</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="D10" t="n">
-        <v>235.9284171545819</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545819</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>490.6129053604687</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>490.6129053604687</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.9284171545819</v>
+        <v>597.0741015092871</v>
       </c>
     </row>
     <row r="11">
@@ -5020,31 +5020,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,7 +5053,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5068,22 +5068,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>894.5540770733951</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M12" t="n">
-        <v>1214.889396603097</v>
+        <v>967.0546881959771</v>
       </c>
       <c r="N12" t="n">
-        <v>1559.410052240715</v>
+        <v>1771.466266460128</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>973.0255547109412</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>804.0893717830343</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>1187.92115703528</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>1154.674019541181</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>1154.674019541181</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>1154.674019541181</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5275,49 +5275,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>554.2152884646821</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>784.1783943330313</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>1552.546540725493</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N15" t="n">
-        <v>1897.067196363111</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="O15" t="n">
-        <v>2145.820610447073</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V16" t="n">
-        <v>820.5263570570736</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>531.109187020113</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>303.1196361220957</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5512,37 +5512,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>508.1073603047985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L18" t="n">
-        <v>738.0704661731477</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M18" t="n">
-        <v>754.998473976564</v>
+        <v>865.5852378527474</v>
       </c>
       <c r="N18" t="n">
-        <v>1559.410052240715</v>
+        <v>1669.996816116898</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>496.665036439558</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C19" t="n">
-        <v>496.665036439558</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D19" t="n">
-        <v>412.2823606383756</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>786.0822064765186</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W19" t="n">
-        <v>496.665036439558</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X19" t="n">
-        <v>496.665036439558</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y19" t="n">
-        <v>496.665036439558</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5767,37 +5767,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701563</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>894.5540770733946</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>1214.889396603096</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N21" t="n">
-        <v>1559.410052240715</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>846.3978353108171</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C22" t="n">
-        <v>677.4616523829102</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D22" t="n">
         <v>527.3450129705744</v>
@@ -5907,19 +5907,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1356.319053240789</v>
+        <v>1360.575309999864</v>
       </c>
       <c r="U22" t="n">
-        <v>1067.190414454347</v>
+        <v>1071.446671213422</v>
       </c>
       <c r="V22" t="n">
-        <v>1067.190414454347</v>
+        <v>816.762183007535</v>
       </c>
       <c r="W22" t="n">
-        <v>1067.190414454347</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X22" t="n">
-        <v>1067.190414454347</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y22" t="n">
-        <v>846.3978353108171</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805469</v>
@@ -5986,13 +5986,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6004,37 +6004,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,13 +6065,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
         <v>1122.004430061687</v>
@@ -6080,16 +6080,16 @@
         <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
-        <v>2135.190598349773</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>2135.190598349773</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>510.2366179610311</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="C25" t="n">
-        <v>341.3004350331242</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D25" t="n">
-        <v>191.1837956207885</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E25" t="n">
-        <v>191.1837956207885</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F25" t="n">
-        <v>191.1837956207885</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V25" t="n">
-        <v>1020.446367141522</v>
+        <v>874.4639424745077</v>
       </c>
       <c r="W25" t="n">
-        <v>731.0291971045613</v>
+        <v>874.4639424745077</v>
       </c>
       <c r="X25" t="n">
-        <v>731.0291971045613</v>
+        <v>874.4639424745077</v>
       </c>
       <c r="Y25" t="n">
-        <v>510.2366179610311</v>
+        <v>653.6713633309776</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899128</v>
@@ -6250,28 +6250,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K27" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
         <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>1442.339749591389</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
-        <v>1559.410052240715</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>542.1367719529251</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="C28" t="n">
-        <v>542.1367719529251</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405894</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581963</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1200.082963358575</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>976.2975481480808</v>
       </c>
       <c r="U28" t="n">
-        <v>1199.262304132582</v>
+        <v>687.168909361639</v>
       </c>
       <c r="V28" t="n">
-        <v>944.5778159266949</v>
+        <v>687.168909361639</v>
       </c>
       <c r="W28" t="n">
-        <v>944.5778159266949</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="X28" t="n">
-        <v>944.5778159266949</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="Y28" t="n">
-        <v>723.7852367831648</v>
+        <v>397.7517393246783</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6478,37 +6478,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>388.8958536704857</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>794.1790493843995</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>794.1790493843995</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022017</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>412.2823606383756</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C31" t="n">
-        <v>412.2823606383756</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D31" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1327.9259898596</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1104.140574649106</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1104.140574649106</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>1104.140574649106</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>814.7234046121455</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>814.7234046121455</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="Y31" t="n">
-        <v>593.9308254686154</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
@@ -6706,7 +6706,7 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6715,37 +6715,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690735</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409608</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742901</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769786</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373971</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805659</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>2745.388427942955</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>3359.285497699844</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>3679.620817229546</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>4024.141472867164</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>4272.894886951126</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>4565.74515569858</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641234</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409491</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475757</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710803</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>268.3619233770517</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C34" t="n">
-        <v>268.3619233770517</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D34" t="n">
-        <v>118.2452839647159</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E34" t="n">
-        <v>118.2452839647159</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028589</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.921157035281</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1187.921157035281</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U34" t="n">
-        <v>898.7925182488389</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V34" t="n">
-        <v>898.7925182488389</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="W34" t="n">
-        <v>898.7925182488389</v>
+        <v>420.0340835819385</v>
       </c>
       <c r="X34" t="n">
-        <v>670.8029673508215</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="Y34" t="n">
-        <v>450.0103882072914</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6952,37 +6952,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>508.1073603047986</v>
+        <v>436.8967109626374</v>
       </c>
       <c r="L36" t="n">
-        <v>1122.004430061687</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M36" t="n">
-        <v>1890.372576454149</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N36" t="n">
-        <v>2234.893232091767</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>584.4452354807079</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1386.776459514605</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1162.99104430411</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>873.8624055176685</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V37" t="n">
-        <v>873.8624055176685</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W37" t="n">
-        <v>584.4452354807079</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X37" t="n">
-        <v>584.4452354807079</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y37" t="n">
-        <v>584.4452354807079</v>
+        <v>237.776412546148</v>
       </c>
     </row>
     <row r="38">
@@ -7162,10 +7162,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7189,22 +7189,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7241,13 +7241,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7256,19 +7256,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>246.2867756623457</v>
+        <v>436.8967109626374</v>
       </c>
       <c r="L39" t="n">
-        <v>860.1838454192346</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M39" t="n">
-        <v>1180.519164948936</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N39" t="n">
-        <v>1525.039820586554</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>2194.503581889214</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>822.9089152986054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347409</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1275.130855347409</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1020.446367141522</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>1020.446367141522</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>1020.446367141522</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>822.9089152986054</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7399,13 +7399,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7426,22 +7426,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7478,37 +7478,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>263.5382936126482</v>
+        <v>436.8967109626374</v>
       </c>
       <c r="L42" t="n">
-        <v>493.5013994809973</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M42" t="n">
-        <v>1261.869545873459</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N42" t="n">
-        <v>1261.869545873459</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>1931.333307176119</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2451.633928911866</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>545.8631874464246</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C43" t="n">
-        <v>376.9270045185177</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D43" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1310.757424832802</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1310.757424832802</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1310.757424832802</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>1056.072936626915</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="W43" t="n">
-        <v>766.6557665899547</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X43" t="n">
-        <v>766.6557665899547</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y43" t="n">
-        <v>545.8631874464246</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="44">
@@ -7636,13 +7636,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7654,7 +7654,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7663,22 +7663,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7715,40 +7715,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>263.5382936126482</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>493.5013994809973</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>813.8367190106992</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
-        <v>1158.357374648317</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>563.1598612984388</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1038.636928647856</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V46" t="n">
-        <v>783.952440441969</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W46" t="n">
-        <v>783.952440441969</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X46" t="n">
-        <v>783.952440441969</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.1598612984388</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8774,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>360.903384442737</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>143.0376875252263</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9020,13 +9020,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,16 +9242,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>159.233031703247</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9263,10 +9263,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9494,16 +9494,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9728,16 +9728,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>378.6326432910346</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9965,16 +9965,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>249.5945430422479</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,22 +10196,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>160.1192604115653</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10442,13 +10442,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10679,13 +10679,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>237.1122605744013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10916,16 +10916,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11150,19 +11150,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11390,13 +11390,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>253.6083322174326</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23703,13 +23703,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>14.74113413690307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>79.34404369770259</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65.07662397504177</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23940,16 +23940,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24180,22 +24180,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>80.37631591444642</v>
+        <v>84.59001010593099</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,25 +24366,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>73.46653134447998</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,10 +24423,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>53.3982095632598</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24651,25 +24651,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>12.04018826006177</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>99.54427804130231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>138.6047844960765</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>200.3353173166226</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>124.6031374435455</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25128,22 +25128,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>221.5282300195147</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>40.67825230693373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>196.8667494545306</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25551,25 +25551,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>23.02257602760753</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>121.6079051195465</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -25845,13 +25845,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>90.9670373936882</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26073,22 +26073,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>250.0291749496234</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278761</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.307527876</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>703852.3075278762</v>
+        <v>703852.3075278761</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>703852.3075278762</v>
+        <v>703852.3075278761</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>703852.3075278762</v>
+        <v>703852.3075278761</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>703852.3075278762</v>
+        <v>703852.307527876</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>703852.3075278762</v>
+        <v>703852.3075278761</v>
       </c>
     </row>
     <row r="16">
@@ -26316,43 +26316,43 @@
         <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="D2" t="n">
         <v>697885.504384641</v>
       </c>
       <c r="E2" t="n">
-        <v>664749.4015541046</v>
+        <v>664749.4015541045</v>
       </c>
       <c r="F2" t="n">
-        <v>664749.4015541044</v>
+        <v>664749.4015541045</v>
       </c>
       <c r="G2" t="n">
         <v>664749.4015541046</v>
       </c>
       <c r="H2" t="n">
-        <v>664749.4015541046</v>
+        <v>664749.4015541045</v>
       </c>
       <c r="I2" t="n">
         <v>664749.4015541045</v>
       </c>
       <c r="J2" t="n">
-        <v>664749.4015541046</v>
+        <v>664749.4015541044</v>
       </c>
       <c r="K2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="L2" t="n">
         <v>664749.4015541045</v>
       </c>
-      <c r="L2" t="n">
-        <v>664749.4015541043</v>
-      </c>
       <c r="M2" t="n">
-        <v>664749.4015541043</v>
+        <v>664749.4015541048</v>
       </c>
       <c r="N2" t="n">
         <v>664749.4015541048</v>
       </c>
       <c r="O2" t="n">
-        <v>664749.4015541046</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="P2" t="n">
         <v>664749.4015541049</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905759207</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758695</v>
@@ -26438,28 +26438,28 @@
         <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="J4" t="n">
+        <v>787.7936905758286</v>
+      </c>
+      <c r="K4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="L4" t="n">
         <v>787.7936905758695</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905757999</v>
-      </c>
-      <c r="K4" t="n">
-        <v>787.7936905758011</v>
-      </c>
-      <c r="L4" t="n">
-        <v>787.7936905757997</v>
       </c>
       <c r="M4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="O4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="P4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="O4" t="n">
-        <v>787.7936905758693</v>
-      </c>
-      <c r="P4" t="n">
-        <v>787.7936905758693</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26487,22 +26487,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26524,46 +26524,46 @@
         <v>-114000.5920739321</v>
       </c>
       <c r="C6" t="n">
-        <v>475967.2871406127</v>
+        <v>475967.2871406121</v>
       </c>
       <c r="D6" t="n">
-        <v>475967.2871406124</v>
+        <v>475967.2871406125</v>
       </c>
       <c r="E6" t="n">
-        <v>46814.24543791593</v>
+        <v>45839.65417819423</v>
       </c>
       <c r="F6" t="n">
-        <v>571974.281914812</v>
+        <v>570999.6906550904</v>
       </c>
       <c r="G6" t="n">
-        <v>571974.2819148122</v>
+        <v>570999.6906550905</v>
       </c>
       <c r="H6" t="n">
-        <v>571974.281914812</v>
+        <v>570999.6906550904</v>
       </c>
       <c r="I6" t="n">
-        <v>571974.281914812</v>
+        <v>570999.6906550904</v>
       </c>
       <c r="J6" t="n">
-        <v>395551.0627222192</v>
+        <v>394576.4714624973</v>
       </c>
       <c r="K6" t="n">
-        <v>571974.281914812</v>
+        <v>570999.6906550906</v>
       </c>
       <c r="L6" t="n">
-        <v>571974.2819148118</v>
+        <v>570999.6906550904</v>
       </c>
       <c r="M6" t="n">
-        <v>437173.2666809747</v>
+        <v>436198.6754212534</v>
       </c>
       <c r="N6" t="n">
-        <v>571974.2819148123</v>
+        <v>570999.6906550906</v>
       </c>
       <c r="O6" t="n">
-        <v>571974.2819148122</v>
+        <v>570999.6906550907</v>
       </c>
       <c r="P6" t="n">
-        <v>571974.2819148124</v>
+        <v>570999.6906550907</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26755,31 +26755,31 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26813,13 +26813,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>70.67517354946926</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>103.088479669175</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>145.9380532813733</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>82.85718120047541</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>149.6280350469622</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>295.6712634489313</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27672,13 +27672,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>12.09831362246982</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27827,19 +27827,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>24.03841831872799</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>208.2440490983179</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>98.95375469339433</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,7 +28031,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28064,13 +28064,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>19.01693735549253</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>88.8403194819189</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -29274,13 +29274,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29295,7 +29295,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29334,7 +29334,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29532,7 +29532,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-1.506350599811412e-12</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29754,7 +29754,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -31141,10 +31141,10 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>167.9005868329995</v>
       </c>
       <c r="O3" t="n">
-        <v>73.87984549392718</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479578</v>
@@ -31366,7 +31366,7 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31378,10 +31378,10 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O6" t="n">
-        <v>149.8971812516336</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
@@ -31612,13 +31612,13 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>86.43447689993485</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392718</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
@@ -31840,28 +31840,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>196.1430416967706</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
@@ -32077,19 +32077,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>208.1179754252732</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32098,7 +32098,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
@@ -32259,7 +32259,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S17" t="n">
         <v>76.0697047810465</v>
@@ -32314,28 +32314,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>175.64913266892</v>
       </c>
       <c r="P18" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32463,10 +32463,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,37 +32475,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,40 +32548,40 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>116.154074479686</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,34 +32785,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>111.3199910445484</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,22 +33733,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>216.4869287318324</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33757,7 +33757,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,34 +33970,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>216.4869287318324</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>248.9156018924985</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.490283364748</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,34 +34207,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>216.4869287318324</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.5808262130737</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.490283364748</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,34 +34444,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
-        <v>394.3663287829266</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677465</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,10 +34789,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O3" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,10 +35026,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839187</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35260,13 +35260,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>222.3490046628629</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>519.7140715247522</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>293.6131261131655</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>556.1186376854935</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>17.09899778122862</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>426.9152075012051</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490674</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>348.440040003271</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>247.2909312077013</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>118.2528309589146</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>409.3769653675897</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>295.8083522701554</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>343.1107267700521</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>94.51601612995684</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>343.1107267700521</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>433.4039631181054</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>343.1107267700521</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.6763398629013</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
-        <v>645.6324036152117</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3483455.723518569</v>
+        <v>3488394.986367601</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>577607.7018218999</v>
+        <v>580839.5577668677</v>
       </c>
     </row>
     <row r="8">
@@ -667,13 +667,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>354.27050211998</v>
       </c>
       <c r="G2" t="n">
-        <v>343.1089964713257</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>118.1129065718637</v>
+        <v>61.28737103419851</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>123.8167699816753</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>200.9966871393563</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>307.9222910483171</v>
+        <v>382.8908255841852</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>129.7443338701759</v>
+        <v>145.8215431037984</v>
       </c>
     </row>
     <row r="11">
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>94.16481274941304</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1584,13 +1584,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1666,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>105.5303094322331</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>183.1796758467</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1897,7 +1897,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>100.4879364842347</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>6.445277085912124</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T22" t="n">
-        <v>136.9575509524583</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>198.7394337605682</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>229.3429969918141</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>185.8806217235415</v>
+        <v>75.78403230830257</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2772,13 +2772,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>114.9309043193598</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>25.37433807241459</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>4.181425369522432</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>139.1537278750036</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274074</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>224.8952567231525</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>161.1706059301403</v>
       </c>
       <c r="V43" t="n">
-        <v>161.1706059301398</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4309,28 +4309,28 @@
         <v>1538.731846067564</v>
       </c>
       <c r="C2" t="n">
-        <v>1169.769329127153</v>
+        <v>1169.769329127152</v>
       </c>
       <c r="D2" t="n">
-        <v>811.5036305204021</v>
+        <v>811.5036305204017</v>
       </c>
       <c r="E2" t="n">
-        <v>811.5036305204021</v>
+        <v>425.7153779221574</v>
       </c>
       <c r="F2" t="n">
-        <v>400.5177257307946</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4342,37 +4342,37 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
         <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304456</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304456</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>2302.336936304456</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W2" t="n">
-        <v>2302.336936304456</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="X2" t="n">
-        <v>1928.871178043376</v>
+        <v>1928.871178043375</v>
       </c>
       <c r="Y2" t="n">
         <v>1538.731846067564</v>
@@ -4385,73 +4385,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>113.6371076753676</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>368.8844281164661</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>773.500346212138</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4485,10 +4485,10 @@
         <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1697.251320989584</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="C5" t="n">
-        <v>1328.288804049173</v>
+        <v>1270.889273203046</v>
       </c>
       <c r="D5" t="n">
-        <v>970.0231054424221</v>
+        <v>912.6235745962956</v>
       </c>
       <c r="E5" t="n">
-        <v>584.2348528441778</v>
+        <v>526.8353219980513</v>
       </c>
       <c r="F5" t="n">
-        <v>173.2489480545702</v>
+        <v>115.8494172084438</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2070.717079250664</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1697.251320989584</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>1697.251320989584</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4655,7 +4655,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>235.9284171545818</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>235.9284171545818</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>235.9284171545818</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>235.9284171545818</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545818</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545818</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>603.0615397804995</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>388.7731165986622</v>
       </c>
       <c r="T7" t="n">
-        <v>525.1020275000139</v>
+        <v>388.7731165986622</v>
       </c>
       <c r="U7" t="n">
-        <v>235.9284171545818</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="V7" t="n">
-        <v>235.9284171545818</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W7" t="n">
-        <v>235.9284171545818</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9284171545818</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.9284171545818</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.915471247702</v>
+        <v>1567.641263708175</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.952954307291</v>
+        <v>1198.678746767763</v>
       </c>
       <c r="D8" t="n">
-        <v>764.6872557005402</v>
+        <v>840.413048161013</v>
       </c>
       <c r="E8" t="n">
-        <v>378.8990031022959</v>
+        <v>454.6247955627687</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287636</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.515311311824</v>
+        <v>1954.241103772297</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4898,7 +4898,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>415.4256366790473</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C10" t="n">
-        <v>246.4894537511404</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>246.4894537511404</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511404</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="Y10" t="n">
-        <v>597.0741015092871</v>
+        <v>551.4175770764215</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,28 +5026,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5056,37 +5056,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,19 +5117,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L12" t="n">
         <v>452.5377573864724</v>
       </c>
       <c r="M12" t="n">
-        <v>967.0546881959771</v>
+        <v>967.054688195977</v>
       </c>
       <c r="N12" t="n">
         <v>1771.466266460128</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011506</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>192.3330639344405</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>192.3330639344405</v>
       </c>
     </row>
     <row r="14">
@@ -5275,43 +5275,43 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047985</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L15" t="n">
-        <v>1122.004430061687</v>
+        <v>530.4931589837784</v>
       </c>
       <c r="M15" t="n">
-        <v>1890.372576454149</v>
+        <v>1298.86130537624</v>
       </c>
       <c r="N15" t="n">
-        <v>2440.930027762787</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="O15" t="n">
-        <v>2440.930027762787</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>465.7659634441658</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1090.100879744681</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>465.7659634441658</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>465.7659634441658</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>465.7659634441658</v>
       </c>
     </row>
     <row r="17">
@@ -5494,13 +5494,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
         <v>904.3190116155888</v>
@@ -5512,7 +5512,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
@@ -5530,31 +5530,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M18" t="n">
-        <v>865.5852378527474</v>
+        <v>865.5852378527475</v>
       </c>
       <c r="N18" t="n">
         <v>1669.996816116898</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.642871543091</v>
+        <v>2339.460577419558</v>
       </c>
       <c r="P18" t="n">
         <v>2612.943493278838</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>564.1830073829216</v>
+        <v>552.3735683412854</v>
       </c>
       <c r="C19" t="n">
-        <v>395.2468244550147</v>
+        <v>383.4373854133785</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>383.4373854133785</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>383.4373854133785</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>383.4373854133785</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>215.2620637331991</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655738</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W19" t="n">
-        <v>665.6859735286132</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X19" t="n">
-        <v>665.6859735286132</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="Y19" t="n">
-        <v>665.6859735286132</v>
+        <v>734.0220331715251</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514085</v>
@@ -5764,7 +5764,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5776,28 +5776,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,13 +5828,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>508.1073603047985</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L21" t="n">
         <v>1122.004430061687</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T22" t="n">
-        <v>1360.575309999864</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1071.446671213422</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>816.762183007535</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>527.3450129705744</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5977,16 +5977,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
@@ -6004,16 +6004,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6065,13 +6065,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K24" t="n">
-        <v>508.1073603047985</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L24" t="n">
         <v>1122.004430061687</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.6713633309776</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>653.6713633309776</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U25" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V25" t="n">
-        <v>874.4639424745077</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W25" t="n">
-        <v>874.4639424745077</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X25" t="n">
-        <v>874.4639424745077</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>653.6713633309776</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6220,28 +6220,28 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899128</v>
@@ -6308,7 +6308,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K27" t="n">
-        <v>508.1073603047985</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L27" t="n">
         <v>1122.004430061687</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>397.7517393246783</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C28" t="n">
-        <v>397.7517393246783</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D28" t="n">
-        <v>247.6350999123426</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028587</v>
@@ -6384,7 +6384,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
@@ -6393,7 +6393,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1200.082963358575</v>
+        <v>1422.366742973759</v>
       </c>
       <c r="T28" t="n">
-        <v>976.2975481480808</v>
+        <v>1198.581327763265</v>
       </c>
       <c r="U28" t="n">
-        <v>687.168909361639</v>
+        <v>909.4526889768229</v>
       </c>
       <c r="V28" t="n">
-        <v>687.168909361639</v>
+        <v>654.768200770936</v>
       </c>
       <c r="W28" t="n">
-        <v>397.7517393246783</v>
+        <v>654.768200770936</v>
       </c>
       <c r="X28" t="n">
-        <v>397.7517393246783</v>
+        <v>426.7786498729187</v>
       </c>
       <c r="Y28" t="n">
-        <v>397.7517393246783</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6487,28 +6487,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,13 +6539,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K30" t="n">
-        <v>508.1073603047985</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L30" t="n">
         <v>1122.004430061687</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V31" t="n">
-        <v>731.3177283550796</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W31" t="n">
-        <v>441.900558318119</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X31" t="n">
-        <v>416.2699138005285</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y31" t="n">
-        <v>416.2699138005285</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="32">
@@ -6679,19 +6679,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
@@ -6703,10 +6703,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6715,13 +6715,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,13 +6767,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6782,13 +6782,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>508.1073603047985</v>
+        <v>436.896710962637</v>
       </c>
       <c r="L33" t="n">
-        <v>1122.004430061687</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M33" t="n">
-        <v>1890.372576454149</v>
+        <v>1819.161927111987</v>
       </c>
       <c r="N33" t="n">
         <v>2623.573505376138</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>964.135741824786</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>709.4512536188992</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>420.0340835819385</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6952,13 +6952,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7004,13 +7004,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
@@ -7019,16 +7019,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>436.8967109626374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L36" t="n">
-        <v>1050.793780719526</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M36" t="n">
-        <v>1819.161927111988</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N36" t="n">
-        <v>2623.573505376138</v>
+        <v>2283.893885873787</v>
       </c>
       <c r="O36" t="n">
         <v>2623.573505376138</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U37" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V37" t="n">
-        <v>755.183133481126</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W37" t="n">
-        <v>465.7659634441654</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X37" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,10 +7162,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7189,13 +7189,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7241,13 +7241,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7256,13 +7256,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>436.8967109626374</v>
+        <v>436.896710962637</v>
       </c>
       <c r="L39" t="n">
         <v>1050.793780719526</v>
       </c>
       <c r="M39" t="n">
-        <v>1819.161927111988</v>
+        <v>1819.161927111987</v>
       </c>
       <c r="N39" t="n">
         <v>2623.573505376138</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7399,13 +7399,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7426,13 +7426,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7493,13 +7493,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>436.8967109626374</v>
+        <v>436.896710962637</v>
       </c>
       <c r="L42" t="n">
         <v>1050.793780719526</v>
       </c>
       <c r="M42" t="n">
-        <v>1819.161927111988</v>
+        <v>1819.161927111987</v>
       </c>
       <c r="N42" t="n">
         <v>2623.573505376138</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,22 +7587,22 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="V43" t="n">
         <v>1336.117678709276</v>
@@ -7654,7 +7654,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7663,13 +7663,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,7 +7730,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>508.1073603047985</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L45" t="n">
         <v>1122.004430061687</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>1271.749344574921</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V46" t="n">
-        <v>1017.064856369034</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W46" t="n">
-        <v>727.647686332073</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X46" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -9011,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>161.1662976374295</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10679,7 +10679,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>85.66716743252425</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>61.71651166639478</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23670,10 +23670,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>79.34404369770259</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>142.468551281624</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T22" t="n">
-        <v>84.59001010593099</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24384,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,19 +24414,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>53.3982095632598</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>57.18000134477691</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,7 +24618,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>12.04018826006177</v>
+        <v>122.1367776753007</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.98990566424345</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>200.3353173166226</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>221.5282300195147</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>40.67825230693373</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>61.34209567542487</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25842,10 +25842,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>125.0667464684371</v>
       </c>
       <c r="V43" t="n">
-        <v>90.9670373936882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.307527876</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278761</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>703852.3075278762</v>
+        <v>703852.3075278761</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278761</v>
       </c>
     </row>
     <row r="14">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>697885.5043846408</v>
+      </c>
+      <c r="C2" t="n">
         <v>697885.504384641</v>
       </c>
-      <c r="C2" t="n">
-        <v>697885.5043846406</v>
-      </c>
       <c r="D2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="E2" t="n">
-        <v>664749.4015541045</v>
+        <v>664749.4015541044</v>
       </c>
       <c r="F2" t="n">
-        <v>664749.4015541045</v>
+        <v>664749.4015541044</v>
       </c>
       <c r="G2" t="n">
-        <v>664749.4015541046</v>
+        <v>664749.4015541048</v>
       </c>
       <c r="H2" t="n">
-        <v>664749.4015541045</v>
+        <v>664749.4015541048</v>
       </c>
       <c r="I2" t="n">
-        <v>664749.4015541045</v>
+        <v>664749.4015541048</v>
       </c>
       <c r="J2" t="n">
         <v>664749.4015541044</v>
@@ -26343,10 +26343,10 @@
         <v>664749.4015541048</v>
       </c>
       <c r="L2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="M2" t="n">
         <v>664749.4015541045</v>
-      </c>
-      <c r="M2" t="n">
-        <v>664749.4015541048</v>
       </c>
       <c r="N2" t="n">
         <v>664749.4015541048</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758695</v>
@@ -26438,25 +26438,25 @@
         <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
         <v>787.7936905758286</v>
       </c>
       <c r="K4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="L4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="L4" t="n">
-        <v>787.7936905758695</v>
-      </c>
       <c r="M4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758694</v>
@@ -26469,34 +26469,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-114000.5920739321</v>
+        <v>-114000.5920739322</v>
       </c>
       <c r="C6" t="n">
-        <v>475967.2871406121</v>
+        <v>475967.2871406125</v>
       </c>
       <c r="D6" t="n">
         <v>475967.2871406125</v>
       </c>
       <c r="E6" t="n">
-        <v>45839.65417819423</v>
+        <v>46716.78631194346</v>
       </c>
       <c r="F6" t="n">
-        <v>570999.6906550904</v>
+        <v>571876.8227888398</v>
       </c>
       <c r="G6" t="n">
-        <v>570999.6906550905</v>
+        <v>571876.8227888402</v>
       </c>
       <c r="H6" t="n">
-        <v>570999.6906550904</v>
+        <v>571876.8227888402</v>
       </c>
       <c r="I6" t="n">
-        <v>570999.6906550904</v>
+        <v>571876.8227888402</v>
       </c>
       <c r="J6" t="n">
-        <v>394576.4714624973</v>
+        <v>395453.6035962467</v>
       </c>
       <c r="K6" t="n">
-        <v>570999.6906550906</v>
+        <v>571876.8227888402</v>
       </c>
       <c r="L6" t="n">
-        <v>570999.6906550904</v>
+        <v>571876.8227888402</v>
       </c>
       <c r="M6" t="n">
-        <v>436198.6754212534</v>
+        <v>437075.8075550027</v>
       </c>
       <c r="N6" t="n">
-        <v>570999.6906550906</v>
+        <v>571876.8227888402</v>
       </c>
       <c r="O6" t="n">
-        <v>570999.6906550907</v>
+        <v>571876.8227888403</v>
       </c>
       <c r="P6" t="n">
-        <v>570999.6906550907</v>
+        <v>571876.8227888403</v>
       </c>
     </row>
   </sheetData>
@@ -26740,46 +26740,46 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,32 +27011,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>540.9263704990176</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>540.9263704990175</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545559</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,13 +27387,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>52.60554362173144</v>
       </c>
       <c r="G2" t="n">
-        <v>70.67517354946926</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>295.6712634489313</v>
+        <v>352.4967989865965</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>22.84842199848252</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>24.03841831872799</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>98.95375469339433</v>
+        <v>23.98522015752627</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>88.8403194819189</v>
+        <v>72.76311024829636</v>
       </c>
     </row>
     <row r="11">
@@ -29274,10 +29274,10 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
         <v>-9.003997547551989e-13</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -31129,7 +31129,7 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>61.04368814949335</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31141,7 +31141,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>167.9005868329995</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
@@ -31150,7 +31150,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034983</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31375,31 +31375,31 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993462</v>
       </c>
       <c r="N6" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31618,25 +31618,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>73.87984549392718</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454958058</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31755,7 +31755,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,31 +31764,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31837,7 +31837,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -31849,13 +31849,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>196.1430416967706</v>
+        <v>196.1430416967705</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,7 +31928,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32074,28 +32074,28 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>208.1179754252732</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446473</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,7 +32311,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -32323,16 +32323,16 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>175.64913266892</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>91.75700832922155</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,22 +32548,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>392.6063366508803</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446473</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,22 +32785,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>392.6063366508803</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,22 +33022,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>392.6063366508803</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,22 +33259,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>392.6063366508803</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -33286,7 +33286,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446464</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,22 +33496,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>216.4869287318321</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>392.6063366508803</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446464</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,25 +33733,25 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>216.4869287318324</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>91.84465193776663</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446464</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,22 +33970,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>216.4869287318324</v>
+        <v>216.4869287318321</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446464</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,22 +34207,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>216.4869287318324</v>
+        <v>216.4869287318321</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,22 +34444,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>392.6063366508803</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34471,7 +34471,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677465</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60.29709682323549</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35415,25 +35415,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,13 +35497,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>519.7140715247522</v>
+        <v>519.7140715247521</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>22.61191785755532</v>
       </c>
       <c r="M15" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>556.1186376854935</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,22 +35889,22 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
         <v>59.82538970349766</v>
@@ -35974,19 +35974,19 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
-        <v>426.9152075012051</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>276.2453695548285</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>740.6069989111005</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,22 +36363,22 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
         <v>59.82538970349766</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>740.6069989111005</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>740.6069989111005</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M30" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>740.6069989111005</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>343.1107267700517</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M33" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>740.6069989111005</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>343.1107267700521</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M36" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>343.1107267700517</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>343.1107267700521</v>
+        <v>343.1107267700517</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M39" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>343.1107267700521</v>
+        <v>343.1107267700517</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M42" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M45" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>740.6069989111005</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
